--- a/Seccion Desarrollo/SVC19/Gestión/SVC19-CP.xlsx
+++ b/Seccion Desarrollo/SVC19/Gestión/SVC19-CP.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgrubuBjnSAFlPUXiLeKqfZVTz79g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgTNvRQiT/cQOSqRGpLx2/ZSwe0Fw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -220,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -256,10 +256,6 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -352,22 +348,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -385,50 +381,26 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -798,7 +770,7 @@
       <c r="P8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="9">
         <v>100.0</v>
       </c>
     </row>
@@ -819,10 +791,10 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="9">
         <v>100.0</v>
       </c>
     </row>
@@ -843,32 +815,32 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12">
       <c r="B12" s="8" t="s">
@@ -891,13 +863,13 @@
       <c r="Q12" s="9"/>
     </row>
     <row r="13" hidden="1">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -910,18 +882,18 @@
       <c r="P13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="14" hidden="1">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -931,22 +903,22 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -955,39 +927,39 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="21"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="9"/>
@@ -995,7 +967,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1003,15 +975,15 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="9"/>
@@ -1019,7 +991,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1027,15 +999,15 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="9"/>
@@ -1043,7 +1015,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1051,22 +1023,22 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="10"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1075,22 +1047,22 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="10"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1099,15 +1071,15 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="22" hidden="1">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="9"/>
@@ -1115,7 +1087,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1126,32 +1098,32 @@
       <c r="P22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
     </row>
     <row r="24">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="9"/>
@@ -1159,15 +1131,15 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="18"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
     <row r="25">
@@ -1179,7 +1151,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="23"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -1190,7 +1162,9 @@
       <c r="P25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="16">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="9" t="s">
@@ -1212,10 +1186,12 @@
       <c r="P26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="16">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="9"/>
@@ -1224,18 +1200,18 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="18"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="18"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
     <row r="28">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="9"/>
@@ -1243,10 +1219,10 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="18"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -1254,30 +1230,32 @@
       <c r="P28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q28" s="9"/>
+      <c r="Q28" s="16">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="9"/>
@@ -1287,16 +1265,18 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q30" s="9"/>
+      <c r="Q30" s="16">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="C31" s="9"/>
@@ -1308,15 +1288,15 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="13"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="9"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="9"/>
@@ -1335,10 +1315,12 @@
       <c r="P32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="16">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="9"/>
@@ -1350,11 +1332,11 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="18"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="18"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="18"/>
+      <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1400,7 +1382,7 @@
       <c r="Q35" s="9"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="9"/>
@@ -1415,8 +1397,8 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="13" t="s">
+      <c r="O36" s="10"/>
+      <c r="P36" s="11" t="s">
         <v>27</v>
       </c>
       <c r="Q36" s="9"/>
@@ -1436,45 +1418,45 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="25"/>
+      <c r="P37" s="11"/>
       <c r="Q37" s="9"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
     </row>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1"/>
